--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1768,10 +1768,10 @@
 </t>
   </si>
   <si>
-    <t>Fecha de nacimiento del Paciente. El formato debe ser YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>Fecha de nacimiento del Paciente. El formato debe ser YYYY-MM-DD (Ej: 1996-08-21)</t>
+    <t>Fecha de nacimiento del prestador profesional. El formato debe ser YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento del prestador profesional. El formato debe ser YYYY-MM-DD (Ej: 1996-08-21)</t>
   </si>
   <si>
     <t>Needed for identification.</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$347</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$351</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12511" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12654" uniqueCount="1073">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2899,12 +2899,6 @@
     <t>Practitioner.qualification:Subespecialidad.code</t>
   </si>
   <si>
-    <t>Specific qualification the practitioner has to provide a service.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
-  </si>
-  <si>
     <t>Practitioner.qualification:Subespecialidad.code.id</t>
   </si>
   <si>
@@ -2953,12 +2947,24 @@
     <t>Practitioner.qualification:Subespecialidad.period</t>
   </si>
   <si>
+    <t>Período en el cual se entregó la Subespecialidad considerando fecha de emisión y de caducidad</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.period.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.period.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.period.start</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification:Subespecialidad.period.end</t>
+  </si>
+  <si>
     <t>Practitioner.qualification:Subespecialidad.issuer</t>
   </si>
   <si>
-    <t>Organizacion que entrega el certificado o título</t>
-  </si>
-  <si>
     <t>Practitioner.qualification:Subespecialidad.issuer.id</t>
   </si>
   <si>
@@ -2975,12 +2981,6 @@
   </si>
   <si>
     <t>Practitioner.qualification:Subespecialidad.issuer.display</t>
-  </si>
-  <si>
-    <t>Nombre de la organizacion que entrega certificado o título</t>
-  </si>
-  <si>
-    <t>Nombre de la organizacion que entrega el certificado o título válido para ejercer como prestdor. En este elemento solo se puede agregar texto libre</t>
   </si>
   <si>
     <t>Practitioner.qualification:EspecialidadOdontologica</t>
@@ -3624,7 +3624,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN347"/>
+  <dimension ref="A1:AN351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4832,7 +4832,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>89</v>
@@ -22245,10 +22245,10 @@
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G164" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H164" t="s" s="2">
         <v>89</v>
@@ -26461,10 +26461,10 @@
       </c>
       <c r="E201" s="2"/>
       <c r="F201" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G201" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H201" t="s" s="2">
         <v>89</v>
@@ -30677,10 +30677,10 @@
       </c>
       <c r="E238" s="2"/>
       <c r="F238" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G238" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H238" t="s" s="2">
         <v>89</v>
@@ -31753,13 +31753,11 @@
         <v>77</v>
       </c>
       <c r="X247" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="Y247" t="s" s="2">
-        <v>937</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="Y247" s="2"/>
       <c r="Z247" t="s" s="2">
-        <v>938</v>
+        <v>887</v>
       </c>
       <c r="AA247" t="s" s="2">
         <v>77</v>
@@ -31806,7 +31804,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>783</v>
@@ -31918,7 +31916,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>785</v>
@@ -32032,7 +32030,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>787</v>
@@ -32148,7 +32146,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>789</v>
@@ -32260,7 +32258,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>791</v>
@@ -32374,7 +32372,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>793</v>
@@ -32406,7 +32404,7 @@
         <v>894</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="N253" t="s" s="2">
         <v>233</v>
@@ -32490,7 +32488,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>797</v>
@@ -32604,7 +32602,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>799</v>
@@ -32718,7 +32716,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>803</v>
@@ -32747,10 +32745,10 @@
         <v>178</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" t="s" s="2">
@@ -32832,7 +32830,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>805</v>
@@ -32948,7 +32946,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>807</v>
@@ -32977,7 +32975,7 @@
         <v>178</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="M258" t="s" s="2">
         <v>275</v>
@@ -33064,7 +33062,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>736</v>
@@ -33081,7 +33079,7 @@
         <v>88</v>
       </c>
       <c r="H259" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I259" t="s" s="2">
         <v>77</v>
@@ -33093,7 +33091,7 @@
         <v>304</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>737</v>
+        <v>953</v>
       </c>
       <c r="M259" t="s" s="2">
         <v>738</v>
@@ -33178,10 +33176,10 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>742</v>
+        <v>812</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -33195,7 +33193,7 @@
         <v>88</v>
       </c>
       <c r="H260" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I260" t="s" s="2">
         <v>77</v>
@@ -33204,13 +33202,13 @@
         <v>77</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>313</v>
+        <v>178</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>956</v>
+        <v>179</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>744</v>
+        <v>180</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
@@ -33261,7 +33259,7 @@
         <v>77</v>
       </c>
       <c r="AF260" t="s" s="2">
-        <v>742</v>
+        <v>181</v>
       </c>
       <c r="AG260" t="s" s="2">
         <v>78</v>
@@ -33273,13 +33271,13 @@
         <v>77</v>
       </c>
       <c r="AJ260" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK260" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL260" t="s" s="2">
-        <v>745</v>
+        <v>182</v>
       </c>
       <c r="AM260" t="s" s="2">
         <v>77</v>
@@ -33290,21 +33288,21 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>838</v>
+        <v>814</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G261" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H261" t="s" s="2">
         <v>77</v>
@@ -33316,15 +33314,17 @@
         <v>77</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N261" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N261" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O261" s="2"/>
       <c r="P261" t="s" s="2">
         <v>77</v>
@@ -33361,31 +33361,31 @@
         <v>77</v>
       </c>
       <c r="AB261" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC261" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AD261" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF261" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AG261" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH261" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI261" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ261" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK261" t="s" s="2">
         <v>77</v>
@@ -33402,21 +33402,21 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>840</v>
+        <v>816</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G262" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H262" t="s" s="2">
         <v>77</v>
@@ -33425,19 +33425,19 @@
         <v>77</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>133</v>
+        <v>817</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>185</v>
+        <v>818</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>186</v>
+        <v>819</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>158</v>
+        <v>820</v>
       </c>
       <c r="O262" s="2"/>
       <c r="P262" t="s" s="2">
@@ -33475,37 +33475,37 @@
         <v>77</v>
       </c>
       <c r="AB262" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC262" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AD262" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF262" t="s" s="2">
-        <v>188</v>
+        <v>821</v>
       </c>
       <c r="AG262" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH262" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI262" t="s" s="2">
-        <v>77</v>
+        <v>822</v>
       </c>
       <c r="AJ262" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK262" t="s" s="2">
-        <v>77</v>
+        <v>823</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>182</v>
+        <v>824</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>77</v>
@@ -33516,10 +33516,10 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -33542,22 +33542,24 @@
         <v>89</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>178</v>
+        <v>817</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q263" s="2"/>
+      <c r="Q263" t="s" s="2">
+        <v>830</v>
+      </c>
       <c r="R263" t="s" s="2">
         <v>77</v>
       </c>
@@ -33601,7 +33603,7 @@
         <v>77</v>
       </c>
       <c r="AF263" t="s" s="2">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="AG263" t="s" s="2">
         <v>78</v>
@@ -33610,16 +33612,16 @@
         <v>88</v>
       </c>
       <c r="AI263" t="s" s="2">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="AJ263" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>77</v>
+        <v>832</v>
       </c>
       <c r="AL263" t="s" s="2">
-        <v>131</v>
+        <v>833</v>
       </c>
       <c r="AM263" t="s" s="2">
         <v>77</v>
@@ -33630,10 +33632,10 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>849</v>
+        <v>742</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -33647,26 +33649,24 @@
         <v>88</v>
       </c>
       <c r="H264" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I264" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J264" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>102</v>
+        <v>313</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>850</v>
+        <v>911</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>851</v>
-      </c>
-      <c r="N264" t="s" s="2">
-        <v>852</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="N264" s="2"/>
       <c r="O264" s="2"/>
       <c r="P264" t="s" s="2">
         <v>77</v>
@@ -33691,13 +33691,13 @@
         <v>77</v>
       </c>
       <c r="X264" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>853</v>
+        <v>77</v>
       </c>
       <c r="Z264" t="s" s="2">
-        <v>854</v>
+        <v>77</v>
       </c>
       <c r="AA264" t="s" s="2">
         <v>77</v>
@@ -33715,7 +33715,7 @@
         <v>77</v>
       </c>
       <c r="AF264" t="s" s="2">
-        <v>855</v>
+        <v>742</v>
       </c>
       <c r="AG264" t="s" s="2">
         <v>78</v>
@@ -33733,7 +33733,7 @@
         <v>77</v>
       </c>
       <c r="AL264" t="s" s="2">
-        <v>131</v>
+        <v>745</v>
       </c>
       <c r="AM264" t="s" s="2">
         <v>77</v>
@@ -33744,10 +33744,10 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -33767,20 +33767,18 @@
         <v>77</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>858</v>
+        <v>179</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="N265" t="s" s="2">
-        <v>860</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N265" s="2"/>
       <c r="O265" s="2"/>
       <c r="P265" t="s" s="2">
         <v>77</v>
@@ -33829,7 +33827,7 @@
         <v>77</v>
       </c>
       <c r="AF265" t="s" s="2">
-        <v>861</v>
+        <v>181</v>
       </c>
       <c r="AG265" t="s" s="2">
         <v>78</v>
@@ -33841,13 +33839,13 @@
         <v>77</v>
       </c>
       <c r="AJ265" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK265" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL265" t="s" s="2">
-        <v>862</v>
+        <v>182</v>
       </c>
       <c r="AM265" t="s" s="2">
         <v>77</v>
@@ -33858,42 +33856,42 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E266" s="2"/>
       <c r="F266" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G266" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H266" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>963</v>
+        <v>185</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>964</v>
+        <v>186</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>866</v>
+        <v>158</v>
       </c>
       <c r="O266" s="2"/>
       <c r="P266" t="s" s="2">
@@ -33931,37 +33929,37 @@
         <v>77</v>
       </c>
       <c r="AB266" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC266" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AD266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>867</v>
+        <v>188</v>
       </c>
       <c r="AG266" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH266" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ266" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>77</v>
@@ -33972,14 +33970,12 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="C267" t="s" s="2">
-        <v>966</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
         <v>77</v>
       </c>
@@ -33988,27 +33984,29 @@
         <v>78</v>
       </c>
       <c r="G267" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H267" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I267" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J267" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I267" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J267" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K267" t="s" s="2">
-        <v>710</v>
+        <v>178</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>967</v>
+        <v>843</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>968</v>
-      </c>
-      <c r="N267" s="2"/>
+        <v>844</v>
+      </c>
+      <c r="N267" t="s" s="2">
+        <v>845</v>
+      </c>
       <c r="O267" s="2"/>
       <c r="P267" t="s" s="2">
         <v>77</v>
@@ -34057,28 +34055,28 @@
         <v>77</v>
       </c>
       <c r="AF267" t="s" s="2">
-        <v>709</v>
+        <v>846</v>
       </c>
       <c r="AG267" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH267" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>77</v>
+        <v>847</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK267" t="s" s="2">
-        <v>715</v>
+        <v>77</v>
       </c>
       <c r="AL267" t="s" s="2">
-        <v>716</v>
+        <v>131</v>
       </c>
       <c r="AM267" t="s" s="2">
-        <v>717</v>
+        <v>77</v>
       </c>
       <c r="AN267" t="s" s="2">
         <v>77</v>
@@ -34086,10 +34084,10 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>718</v>
+        <v>849</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -34109,18 +34107,20 @@
         <v>77</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>179</v>
+        <v>850</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N268" s="2"/>
+        <v>851</v>
+      </c>
+      <c r="N268" t="s" s="2">
+        <v>852</v>
+      </c>
       <c r="O268" s="2"/>
       <c r="P268" t="s" s="2">
         <v>77</v>
@@ -34145,13 +34145,13 @@
         <v>77</v>
       </c>
       <c r="X268" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="Y268" t="s" s="2">
-        <v>77</v>
+        <v>853</v>
       </c>
       <c r="Z268" t="s" s="2">
-        <v>77</v>
+        <v>854</v>
       </c>
       <c r="AA268" t="s" s="2">
         <v>77</v>
@@ -34169,7 +34169,7 @@
         <v>77</v>
       </c>
       <c r="AF268" t="s" s="2">
-        <v>181</v>
+        <v>855</v>
       </c>
       <c r="AG268" t="s" s="2">
         <v>78</v>
@@ -34181,13 +34181,13 @@
         <v>77</v>
       </c>
       <c r="AJ268" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK268" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL268" t="s" s="2">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="AM268" t="s" s="2">
         <v>77</v>
@@ -34198,21 +34198,21 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>719</v>
+        <v>857</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G269" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H269" t="s" s="2">
         <v>77</v>
@@ -34221,19 +34221,19 @@
         <v>77</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>185</v>
+        <v>858</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>186</v>
+        <v>859</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>158</v>
+        <v>860</v>
       </c>
       <c r="O269" s="2"/>
       <c r="P269" t="s" s="2">
@@ -34283,25 +34283,25 @@
         <v>77</v>
       </c>
       <c r="AF269" t="s" s="2">
-        <v>188</v>
+        <v>861</v>
       </c>
       <c r="AG269" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH269" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI269" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ269" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK269" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL269" t="s" s="2">
-        <v>182</v>
+        <v>862</v>
       </c>
       <c r="AM269" t="s" s="2">
         <v>77</v>
@@ -34312,46 +34312,44 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>720</v>
+        <v>864</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
-        <v>721</v>
+        <v>77</v>
       </c>
       <c r="E270" s="2"/>
       <c r="F270" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G270" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H270" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I270" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J270" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>722</v>
+        <v>865</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>723</v>
+        <v>865</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O270" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>866</v>
+      </c>
+      <c r="O270" s="2"/>
       <c r="P270" t="s" s="2">
         <v>77</v>
       </c>
@@ -34399,19 +34397,19 @@
         <v>77</v>
       </c>
       <c r="AF270" t="s" s="2">
-        <v>724</v>
+        <v>867</v>
       </c>
       <c r="AG270" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH270" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI270" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ270" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK270" t="s" s="2">
         <v>77</v>
@@ -34428,12 +34426,14 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="C271" s="2"/>
+        <v>709</v>
+      </c>
+      <c r="C271" t="s" s="2">
+        <v>966</v>
+      </c>
       <c r="D271" t="s" s="2">
         <v>77</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>79</v>
       </c>
       <c r="H271" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I271" t="s" s="2">
         <v>77</v>
@@ -34454,18 +34454,16 @@
         <v>77</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>163</v>
+        <v>710</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>726</v>
+        <v>967</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>727</v>
+        <v>968</v>
       </c>
       <c r="N271" s="2"/>
-      <c r="O271" t="s" s="2">
-        <v>728</v>
-      </c>
+      <c r="O271" s="2"/>
       <c r="P271" t="s" s="2">
         <v>77</v>
       </c>
@@ -34513,7 +34511,7 @@
         <v>77</v>
       </c>
       <c r="AF271" t="s" s="2">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="AG271" t="s" s="2">
         <v>78</v>
@@ -34528,13 +34526,13 @@
         <v>100</v>
       </c>
       <c r="AK271" t="s" s="2">
-        <v>77</v>
+        <v>715</v>
       </c>
       <c r="AL271" t="s" s="2">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="AM271" t="s" s="2">
-        <v>77</v>
+        <v>717</v>
       </c>
       <c r="AN271" t="s" s="2">
         <v>77</v>
@@ -34542,10 +34540,10 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -34654,10 +34652,10 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>762</v>
+        <v>719</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -34727,16 +34725,16 @@
         <v>77</v>
       </c>
       <c r="AB273" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC273" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AD273" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>188</v>
@@ -34768,21 +34766,21 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>764</v>
+        <v>720</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
-        <v>77</v>
+        <v>721</v>
       </c>
       <c r="E274" s="2"/>
       <c r="F274" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G274" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H274" t="s" s="2">
         <v>77</v>
@@ -34794,19 +34792,19 @@
         <v>89</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>361</v>
+        <v>722</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>192</v>
+        <v>723</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="O274" t="s" s="2">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="P274" t="s" s="2">
         <v>77</v>
@@ -34831,13 +34829,13 @@
         <v>77</v>
       </c>
       <c r="X274" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Y274" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Z274" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AA274" t="s" s="2">
         <v>77</v>
@@ -34855,25 +34853,25 @@
         <v>77</v>
       </c>
       <c r="AF274" t="s" s="2">
-        <v>199</v>
+        <v>724</v>
       </c>
       <c r="AG274" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH274" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI274" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ274" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK274" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL274" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AL274" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM274" t="s" s="2">
         <v>77</v>
@@ -34884,10 +34882,10 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>766</v>
+        <v>725</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -34895,34 +34893,32 @@
       </c>
       <c r="E275" s="2"/>
       <c r="F275" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G275" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H275" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I275" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J275" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>363</v>
+        <v>726</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N275" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="N275" s="2"/>
       <c r="O275" t="s" s="2">
-        <v>207</v>
+        <v>728</v>
       </c>
       <c r="P275" t="s" s="2">
         <v>77</v>
@@ -34947,13 +34943,13 @@
         <v>77</v>
       </c>
       <c r="X275" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="Y275" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="Z275" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="AA275" t="s" s="2">
         <v>77</v>
@@ -34971,13 +34967,13 @@
         <v>77</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>209</v>
+        <v>725</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH275" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI275" t="s" s="2">
         <v>77</v>
@@ -34986,10 +34982,10 @@
         <v>100</v>
       </c>
       <c r="AK275" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AL275" t="s" s="2">
-        <v>200</v>
+        <v>729</v>
       </c>
       <c r="AM275" t="s" s="2">
         <v>77</v>
@@ -35000,10 +34996,10 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -35023,23 +35019,19 @@
         <v>77</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>769</v>
+        <v>179</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="N276" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="O276" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N276" s="2"/>
+      <c r="O276" s="2"/>
       <c r="P276" t="s" s="2">
         <v>77</v>
       </c>
@@ -35051,7 +35043,7 @@
         <v>77</v>
       </c>
       <c r="T276" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="U276" t="s" s="2">
         <v>77</v>
@@ -35087,7 +35079,7 @@
         <v>77</v>
       </c>
       <c r="AF276" t="s" s="2">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c r="AG276" t="s" s="2">
         <v>78</v>
@@ -35099,16 +35091,16 @@
         <v>77</v>
       </c>
       <c r="AJ276" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK276" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AL276" t="s" s="2">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="AM276" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AN276" t="s" s="2">
         <v>77</v>
@@ -35116,21 +35108,21 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G277" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H277" t="s" s="2">
         <v>77</v>
@@ -35139,19 +35131,19 @@
         <v>77</v>
       </c>
       <c r="J277" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>979</v>
+        <v>185</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>980</v>
+        <v>186</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="O277" s="2"/>
       <c r="P277" t="s" s="2">
@@ -35162,10 +35154,10 @@
         <v>77</v>
       </c>
       <c r="S277" t="s" s="2">
-        <v>981</v>
+        <v>77</v>
       </c>
       <c r="T277" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="U277" t="s" s="2">
         <v>77</v>
@@ -35189,40 +35181,40 @@
         <v>77</v>
       </c>
       <c r="AB277" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC277" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AD277" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF277" t="s" s="2">
-        <v>298</v>
+        <v>188</v>
       </c>
       <c r="AG277" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH277" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI277" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ277" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK277" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AL277" t="s" s="2">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c r="AM277" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AN277" t="s" s="2">
         <v>77</v>
@@ -35230,10 +35222,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -35250,22 +35242,26 @@
         <v>77</v>
       </c>
       <c r="I278" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J278" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>304</v>
+        <v>108</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>305</v>
+        <v>361</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N278" s="2"/>
-      <c r="O278" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N278" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O278" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P278" t="s" s="2">
         <v>77</v>
       </c>
@@ -35289,13 +35285,13 @@
         <v>77</v>
       </c>
       <c r="X278" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="Y278" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Z278" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="AA278" t="s" s="2">
         <v>77</v>
@@ -35313,7 +35309,7 @@
         <v>77</v>
       </c>
       <c r="AF278" t="s" s="2">
-        <v>307</v>
+        <v>199</v>
       </c>
       <c r="AG278" t="s" s="2">
         <v>78</v>
@@ -35328,13 +35324,13 @@
         <v>100</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="AL278" t="s" s="2">
-        <v>309</v>
+        <v>200</v>
       </c>
       <c r="AM278" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AN278" t="s" s="2">
         <v>77</v>
@@ -35342,10 +35338,10 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -35368,18 +35364,20 @@
         <v>89</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O279" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O279" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P279" t="s" s="2">
         <v>77</v>
       </c>
@@ -35403,13 +35401,13 @@
         <v>77</v>
       </c>
       <c r="X279" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="Y279" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="Z279" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="AA279" t="s" s="2">
         <v>77</v>
@@ -35427,7 +35425,7 @@
         <v>77</v>
       </c>
       <c r="AF279" t="s" s="2">
-        <v>317</v>
+        <v>209</v>
       </c>
       <c r="AG279" t="s" s="2">
         <v>78</v>
@@ -35442,13 +35440,13 @@
         <v>100</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="AL279" t="s" s="2">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="AM279" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="AN279" t="s" s="2">
         <v>77</v>
@@ -35456,10 +35454,10 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>730</v>
+        <v>768</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -35467,31 +35465,35 @@
       </c>
       <c r="E280" s="2"/>
       <c r="F280" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G280" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H280" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I280" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J280" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I280" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J280" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K280" t="s" s="2">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>985</v>
+        <v>769</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="N280" s="2"/>
-      <c r="O280" s="2"/>
+        <v>770</v>
+      </c>
+      <c r="N280" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="O280" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P280" t="s" s="2">
         <v>77</v>
       </c>
@@ -35503,7 +35505,7 @@
         <v>77</v>
       </c>
       <c r="T280" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="U280" t="s" s="2">
         <v>77</v>
@@ -35515,11 +35517,13 @@
         <v>77</v>
       </c>
       <c r="X280" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y280" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y280" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z280" t="s" s="2">
-        <v>986</v>
+        <v>77</v>
       </c>
       <c r="AA280" t="s" s="2">
         <v>77</v>
@@ -35537,10 +35541,10 @@
         <v>77</v>
       </c>
       <c r="AF280" t="s" s="2">
-        <v>730</v>
+        <v>288</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>88</v>
@@ -35552,13 +35556,13 @@
         <v>100</v>
       </c>
       <c r="AK280" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AL280" t="s" s="2">
-        <v>716</v>
+        <v>290</v>
       </c>
       <c r="AM280" t="s" s="2">
-        <v>735</v>
+        <v>291</v>
       </c>
       <c r="AN280" t="s" s="2">
         <v>77</v>
@@ -35566,10 +35570,10 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -35577,7 +35581,7 @@
       </c>
       <c r="E281" s="2"/>
       <c r="F281" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G281" t="s" s="2">
         <v>88</v>
@@ -35589,18 +35593,20 @@
         <v>77</v>
       </c>
       <c r="J281" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K281" t="s" s="2">
         <v>178</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>179</v>
+        <v>979</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N281" s="2"/>
+        <v>980</v>
+      </c>
+      <c r="N281" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O281" s="2"/>
       <c r="P281" t="s" s="2">
         <v>77</v>
@@ -35610,10 +35616,10 @@
         <v>77</v>
       </c>
       <c r="S281" t="s" s="2">
-        <v>77</v>
+        <v>981</v>
       </c>
       <c r="T281" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="U281" t="s" s="2">
         <v>77</v>
@@ -35649,7 +35655,7 @@
         <v>77</v>
       </c>
       <c r="AF281" t="s" s="2">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="AG281" t="s" s="2">
         <v>78</v>
@@ -35661,16 +35667,16 @@
         <v>77</v>
       </c>
       <c r="AJ281" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK281" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="AL281" t="s" s="2">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="AM281" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN281" t="s" s="2">
         <v>77</v>
@@ -35678,21 +35684,21 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E282" s="2"/>
       <c r="F282" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G282" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H282" t="s" s="2">
         <v>77</v>
@@ -35701,20 +35707,18 @@
         <v>77</v>
       </c>
       <c r="J282" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N282" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N282" s="2"/>
       <c r="O282" s="2"/>
       <c r="P282" t="s" s="2">
         <v>77</v>
@@ -35751,40 +35755,40 @@
         <v>77</v>
       </c>
       <c r="AB282" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC282" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AD282" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF282" t="s" s="2">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="AG282" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH282" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI282" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ282" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="AL282" t="s" s="2">
-        <v>182</v>
+        <v>309</v>
       </c>
       <c r="AM282" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AN282" t="s" s="2">
         <v>77</v>
@@ -35792,10 +35796,10 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -35806,7 +35810,7 @@
         <v>78</v>
       </c>
       <c r="G283" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H283" t="s" s="2">
         <v>77</v>
@@ -35818,20 +35822,18 @@
         <v>89</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O283" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="O283" s="2"/>
       <c r="P283" t="s" s="2">
         <v>77</v>
       </c>
@@ -35879,13 +35881,13 @@
         <v>77</v>
       </c>
       <c r="AF283" t="s" s="2">
-        <v>222</v>
+        <v>317</v>
       </c>
       <c r="AG283" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH283" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI283" t="s" s="2">
         <v>77</v>
@@ -35894,13 +35896,13 @@
         <v>100</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="AL283" t="s" s="2">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="AM283" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AN283" t="s" s="2">
         <v>77</v>
@@ -35908,10 +35910,10 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>807</v>
+        <v>730</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -35925,29 +35927,25 @@
         <v>88</v>
       </c>
       <c r="H284" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I284" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N284" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O284" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="N284" s="2"/>
+      <c r="O284" s="2"/>
       <c r="P284" t="s" s="2">
         <v>77</v>
       </c>
@@ -35971,13 +35969,11 @@
         <v>77</v>
       </c>
       <c r="X284" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y284" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="Y284" s="2"/>
       <c r="Z284" t="s" s="2">
-        <v>77</v>
+        <v>986</v>
       </c>
       <c r="AA284" t="s" s="2">
         <v>77</v>
@@ -35995,10 +35991,10 @@
         <v>77</v>
       </c>
       <c r="AF284" t="s" s="2">
-        <v>278</v>
+        <v>730</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>88</v>
@@ -36010,13 +36006,13 @@
         <v>100</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AL284" t="s" s="2">
-        <v>280</v>
+        <v>716</v>
       </c>
       <c r="AM284" t="s" s="2">
-        <v>77</v>
+        <v>735</v>
       </c>
       <c r="AN284" t="s" s="2">
         <v>77</v>
@@ -36024,10 +36020,10 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>736</v>
+        <v>783</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -36041,7 +36037,7 @@
         <v>88</v>
       </c>
       <c r="H285" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I285" t="s" s="2">
         <v>77</v>
@@ -36050,18 +36046,16 @@
         <v>77</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>905</v>
+        <v>179</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>738</v>
+        <v>180</v>
       </c>
       <c r="N285" s="2"/>
-      <c r="O285" t="s" s="2">
-        <v>739</v>
-      </c>
+      <c r="O285" s="2"/>
       <c r="P285" t="s" s="2">
         <v>77</v>
       </c>
@@ -36109,7 +36103,7 @@
         <v>77</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>736</v>
+        <v>181</v>
       </c>
       <c r="AG285" t="s" s="2">
         <v>78</v>
@@ -36121,16 +36115,16 @@
         <v>77</v>
       </c>
       <c r="AJ285" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK285" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL285" t="s" s="2">
-        <v>740</v>
+        <v>182</v>
       </c>
       <c r="AM285" t="s" s="2">
-        <v>741</v>
+        <v>77</v>
       </c>
       <c r="AN285" t="s" s="2">
         <v>77</v>
@@ -36138,21 +36132,21 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>812</v>
+        <v>785</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E286" s="2"/>
       <c r="F286" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G286" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H286" t="s" s="2">
         <v>77</v>
@@ -36164,15 +36158,17 @@
         <v>77</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N286" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N286" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O286" s="2"/>
       <c r="P286" t="s" s="2">
         <v>77</v>
@@ -36209,31 +36205,31 @@
         <v>77</v>
       </c>
       <c r="AB286" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC286" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AD286" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF286" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AG286" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH286" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI286" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ286" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK286" t="s" s="2">
         <v>77</v>
@@ -36250,14 +36246,14 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>814</v>
+        <v>787</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" t="s" s="2">
@@ -36273,21 +36269,23 @@
         <v>77</v>
       </c>
       <c r="J287" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>185</v>
+        <v>371</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O287" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O287" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P287" t="s" s="2">
         <v>77</v>
       </c>
@@ -36323,19 +36321,19 @@
         <v>77</v>
       </c>
       <c r="AB287" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC287" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AD287" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF287" t="s" s="2">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="AG287" t="s" s="2">
         <v>78</v>
@@ -36347,13 +36345,13 @@
         <v>77</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK287" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="AL287" t="s" s="2">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="AM287" t="s" s="2">
         <v>77</v>
@@ -36364,10 +36362,10 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -36375,7 +36373,7 @@
       </c>
       <c r="E288" s="2"/>
       <c r="F288" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G288" t="s" s="2">
         <v>88</v>
@@ -36390,18 +36388,20 @@
         <v>89</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>817</v>
+        <v>178</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>818</v>
+        <v>991</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>819</v>
+        <v>275</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="O288" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="O288" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P288" t="s" s="2">
         <v>77</v>
       </c>
@@ -36449,7 +36449,7 @@
         <v>77</v>
       </c>
       <c r="AF288" t="s" s="2">
-        <v>821</v>
+        <v>278</v>
       </c>
       <c r="AG288" t="s" s="2">
         <v>78</v>
@@ -36458,16 +36458,16 @@
         <v>88</v>
       </c>
       <c r="AI288" t="s" s="2">
-        <v>822</v>
+        <v>77</v>
       </c>
       <c r="AJ288" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK288" t="s" s="2">
-        <v>823</v>
+        <v>279</v>
       </c>
       <c r="AL288" t="s" s="2">
-        <v>824</v>
+        <v>280</v>
       </c>
       <c r="AM288" t="s" s="2">
         <v>77</v>
@@ -36478,10 +36478,10 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>826</v>
+        <v>736</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -36495,33 +36495,31 @@
         <v>88</v>
       </c>
       <c r="H289" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I289" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J289" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>817</v>
+        <v>304</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>827</v>
+        <v>905</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="N289" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="O289" s="2"/>
+        <v>738</v>
+      </c>
+      <c r="N289" s="2"/>
+      <c r="O289" t="s" s="2">
+        <v>739</v>
+      </c>
       <c r="P289" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q289" t="s" s="2">
-        <v>830</v>
-      </c>
+      <c r="Q289" s="2"/>
       <c r="R289" t="s" s="2">
         <v>77</v>
       </c>
@@ -36565,7 +36563,7 @@
         <v>77</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>831</v>
+        <v>736</v>
       </c>
       <c r="AG289" t="s" s="2">
         <v>78</v>
@@ -36574,19 +36572,19 @@
         <v>88</v>
       </c>
       <c r="AI289" t="s" s="2">
-        <v>822</v>
+        <v>77</v>
       </c>
       <c r="AJ289" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK289" t="s" s="2">
-        <v>832</v>
+        <v>77</v>
       </c>
       <c r="AL289" t="s" s="2">
-        <v>833</v>
+        <v>740</v>
       </c>
       <c r="AM289" t="s" s="2">
-        <v>77</v>
+        <v>741</v>
       </c>
       <c r="AN289" t="s" s="2">
         <v>77</v>
@@ -36594,10 +36592,10 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>742</v>
+        <v>812</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -36611,7 +36609,7 @@
         <v>88</v>
       </c>
       <c r="H290" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I290" t="s" s="2">
         <v>77</v>
@@ -36620,13 +36618,13 @@
         <v>77</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>313</v>
+        <v>178</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>911</v>
+        <v>179</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>836</v>
+        <v>180</v>
       </c>
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
@@ -36677,7 +36675,7 @@
         <v>77</v>
       </c>
       <c r="AF290" t="s" s="2">
-        <v>742</v>
+        <v>181</v>
       </c>
       <c r="AG290" t="s" s="2">
         <v>78</v>
@@ -36689,13 +36687,13 @@
         <v>77</v>
       </c>
       <c r="AJ290" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK290" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL290" t="s" s="2">
-        <v>745</v>
+        <v>182</v>
       </c>
       <c r="AM290" t="s" s="2">
         <v>77</v>
@@ -36706,21 +36704,21 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>838</v>
+        <v>814</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E291" s="2"/>
       <c r="F291" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G291" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H291" t="s" s="2">
         <v>77</v>
@@ -36732,15 +36730,17 @@
         <v>77</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N291" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N291" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O291" s="2"/>
       <c r="P291" t="s" s="2">
         <v>77</v>
@@ -36777,31 +36777,31 @@
         <v>77</v>
       </c>
       <c r="AB291" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC291" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AD291" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF291" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AG291" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH291" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI291" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ291" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK291" t="s" s="2">
         <v>77</v>
@@ -36818,21 +36818,21 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>840</v>
+        <v>816</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E292" s="2"/>
       <c r="F292" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G292" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H292" t="s" s="2">
         <v>77</v>
@@ -36841,19 +36841,19 @@
         <v>77</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>133</v>
+        <v>817</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>185</v>
+        <v>818</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>186</v>
+        <v>819</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>158</v>
+        <v>820</v>
       </c>
       <c r="O292" s="2"/>
       <c r="P292" t="s" s="2">
@@ -36891,37 +36891,37 @@
         <v>77</v>
       </c>
       <c r="AB292" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC292" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AD292" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF292" t="s" s="2">
-        <v>188</v>
+        <v>821</v>
       </c>
       <c r="AG292" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH292" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI292" t="s" s="2">
-        <v>77</v>
+        <v>822</v>
       </c>
       <c r="AJ292" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>77</v>
+        <v>823</v>
       </c>
       <c r="AL292" t="s" s="2">
-        <v>182</v>
+        <v>824</v>
       </c>
       <c r="AM292" t="s" s="2">
         <v>77</v>
@@ -36932,10 +36932,10 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -36958,22 +36958,24 @@
         <v>89</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>178</v>
+        <v>817</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="O293" s="2"/>
       <c r="P293" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q293" s="2"/>
+      <c r="Q293" t="s" s="2">
+        <v>830</v>
+      </c>
       <c r="R293" t="s" s="2">
         <v>77</v>
       </c>
@@ -37017,7 +37019,7 @@
         <v>77</v>
       </c>
       <c r="AF293" t="s" s="2">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="AG293" t="s" s="2">
         <v>78</v>
@@ -37026,16 +37028,16 @@
         <v>88</v>
       </c>
       <c r="AI293" t="s" s="2">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="AJ293" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK293" t="s" s="2">
-        <v>77</v>
+        <v>832</v>
       </c>
       <c r="AL293" t="s" s="2">
-        <v>131</v>
+        <v>833</v>
       </c>
       <c r="AM293" t="s" s="2">
         <v>77</v>
@@ -37046,10 +37048,10 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>849</v>
+        <v>742</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -37063,26 +37065,24 @@
         <v>88</v>
       </c>
       <c r="H294" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I294" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J294" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>102</v>
+        <v>313</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>850</v>
+        <v>911</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>851</v>
-      </c>
-      <c r="N294" t="s" s="2">
-        <v>852</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="N294" s="2"/>
       <c r="O294" s="2"/>
       <c r="P294" t="s" s="2">
         <v>77</v>
@@ -37107,13 +37107,13 @@
         <v>77</v>
       </c>
       <c r="X294" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="Y294" t="s" s="2">
-        <v>853</v>
+        <v>77</v>
       </c>
       <c r="Z294" t="s" s="2">
-        <v>854</v>
+        <v>77</v>
       </c>
       <c r="AA294" t="s" s="2">
         <v>77</v>
@@ -37131,7 +37131,7 @@
         <v>77</v>
       </c>
       <c r="AF294" t="s" s="2">
-        <v>855</v>
+        <v>742</v>
       </c>
       <c r="AG294" t="s" s="2">
         <v>78</v>
@@ -37149,7 +37149,7 @@
         <v>77</v>
       </c>
       <c r="AL294" t="s" s="2">
-        <v>131</v>
+        <v>745</v>
       </c>
       <c r="AM294" t="s" s="2">
         <v>77</v>
@@ -37160,10 +37160,10 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -37183,20 +37183,18 @@
         <v>77</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>858</v>
+        <v>179</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="N295" t="s" s="2">
-        <v>860</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N295" s="2"/>
       <c r="O295" s="2"/>
       <c r="P295" t="s" s="2">
         <v>77</v>
@@ -37245,7 +37243,7 @@
         <v>77</v>
       </c>
       <c r="AF295" t="s" s="2">
-        <v>861</v>
+        <v>181</v>
       </c>
       <c r="AG295" t="s" s="2">
         <v>78</v>
@@ -37257,13 +37255,13 @@
         <v>77</v>
       </c>
       <c r="AJ295" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK295" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL295" t="s" s="2">
-        <v>862</v>
+        <v>182</v>
       </c>
       <c r="AM295" t="s" s="2">
         <v>77</v>
@@ -37274,21 +37272,21 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E296" s="2"/>
       <c r="F296" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G296" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H296" t="s" s="2">
         <v>77</v>
@@ -37297,19 +37295,19 @@
         <v>77</v>
       </c>
       <c r="J296" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>865</v>
+        <v>185</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>865</v>
+        <v>186</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>866</v>
+        <v>158</v>
       </c>
       <c r="O296" s="2"/>
       <c r="P296" t="s" s="2">
@@ -37347,37 +37345,37 @@
         <v>77</v>
       </c>
       <c r="AB296" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC296" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AD296" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF296" t="s" s="2">
-        <v>867</v>
+        <v>188</v>
       </c>
       <c r="AG296" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH296" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI296" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ296" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK296" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL296" t="s" s="2">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="AM296" t="s" s="2">
         <v>77</v>
@@ -37388,14 +37386,12 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="C297" t="s" s="2">
-        <v>1005</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
         <v>77</v>
       </c>
@@ -37404,27 +37400,29 @@
         <v>78</v>
       </c>
       <c r="G297" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H297" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I297" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J297" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I297" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J297" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K297" t="s" s="2">
-        <v>710</v>
+        <v>178</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>1006</v>
+        <v>843</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>968</v>
-      </c>
-      <c r="N297" s="2"/>
+        <v>844</v>
+      </c>
+      <c r="N297" t="s" s="2">
+        <v>845</v>
+      </c>
       <c r="O297" s="2"/>
       <c r="P297" t="s" s="2">
         <v>77</v>
@@ -37473,28 +37471,28 @@
         <v>77</v>
       </c>
       <c r="AF297" t="s" s="2">
-        <v>709</v>
+        <v>846</v>
       </c>
       <c r="AG297" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH297" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI297" t="s" s="2">
-        <v>77</v>
+        <v>847</v>
       </c>
       <c r="AJ297" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK297" t="s" s="2">
-        <v>715</v>
+        <v>77</v>
       </c>
       <c r="AL297" t="s" s="2">
-        <v>716</v>
+        <v>131</v>
       </c>
       <c r="AM297" t="s" s="2">
-        <v>717</v>
+        <v>77</v>
       </c>
       <c r="AN297" t="s" s="2">
         <v>77</v>
@@ -37502,10 +37500,10 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>718</v>
+        <v>849</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -37525,18 +37523,20 @@
         <v>77</v>
       </c>
       <c r="J298" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>179</v>
+        <v>850</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N298" s="2"/>
+        <v>851</v>
+      </c>
+      <c r="N298" t="s" s="2">
+        <v>852</v>
+      </c>
       <c r="O298" s="2"/>
       <c r="P298" t="s" s="2">
         <v>77</v>
@@ -37561,13 +37561,13 @@
         <v>77</v>
       </c>
       <c r="X298" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="Y298" t="s" s="2">
-        <v>77</v>
+        <v>853</v>
       </c>
       <c r="Z298" t="s" s="2">
-        <v>77</v>
+        <v>854</v>
       </c>
       <c r="AA298" t="s" s="2">
         <v>77</v>
@@ -37585,7 +37585,7 @@
         <v>77</v>
       </c>
       <c r="AF298" t="s" s="2">
-        <v>181</v>
+        <v>855</v>
       </c>
       <c r="AG298" t="s" s="2">
         <v>78</v>
@@ -37597,13 +37597,13 @@
         <v>77</v>
       </c>
       <c r="AJ298" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK298" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL298" t="s" s="2">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="AM298" t="s" s="2">
         <v>77</v>
@@ -37614,21 +37614,21 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>719</v>
+        <v>857</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E299" s="2"/>
       <c r="F299" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G299" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H299" t="s" s="2">
         <v>77</v>
@@ -37637,19 +37637,19 @@
         <v>77</v>
       </c>
       <c r="J299" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>185</v>
+        <v>858</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>186</v>
+        <v>859</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>158</v>
+        <v>860</v>
       </c>
       <c r="O299" s="2"/>
       <c r="P299" t="s" s="2">
@@ -37699,25 +37699,25 @@
         <v>77</v>
       </c>
       <c r="AF299" t="s" s="2">
-        <v>188</v>
+        <v>861</v>
       </c>
       <c r="AG299" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH299" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI299" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ299" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK299" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL299" t="s" s="2">
-        <v>182</v>
+        <v>862</v>
       </c>
       <c r="AM299" t="s" s="2">
         <v>77</v>
@@ -37728,46 +37728,44 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>720</v>
+        <v>864</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
-        <v>721</v>
+        <v>77</v>
       </c>
       <c r="E300" s="2"/>
       <c r="F300" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G300" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H300" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I300" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J300" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>722</v>
+        <v>865</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>723</v>
+        <v>865</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O300" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>866</v>
+      </c>
+      <c r="O300" s="2"/>
       <c r="P300" t="s" s="2">
         <v>77</v>
       </c>
@@ -37815,19 +37813,19 @@
         <v>77</v>
       </c>
       <c r="AF300" t="s" s="2">
-        <v>724</v>
+        <v>867</v>
       </c>
       <c r="AG300" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH300" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI300" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ300" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK300" t="s" s="2">
         <v>77</v>
@@ -37844,12 +37842,14 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="C301" s="2"/>
+        <v>709</v>
+      </c>
+      <c r="C301" t="s" s="2">
+        <v>1005</v>
+      </c>
       <c r="D301" t="s" s="2">
         <v>77</v>
       </c>
@@ -37861,7 +37861,7 @@
         <v>79</v>
       </c>
       <c r="H301" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I301" t="s" s="2">
         <v>77</v>
@@ -37870,18 +37870,16 @@
         <v>77</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>163</v>
+        <v>710</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>726</v>
+        <v>1006</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>727</v>
+        <v>968</v>
       </c>
       <c r="N301" s="2"/>
-      <c r="O301" t="s" s="2">
-        <v>728</v>
-      </c>
+      <c r="O301" s="2"/>
       <c r="P301" t="s" s="2">
         <v>77</v>
       </c>
@@ -37929,7 +37927,7 @@
         <v>77</v>
       </c>
       <c r="AF301" t="s" s="2">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="AG301" t="s" s="2">
         <v>78</v>
@@ -37944,13 +37942,13 @@
         <v>100</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>77</v>
+        <v>715</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="AM301" t="s" s="2">
-        <v>77</v>
+        <v>717</v>
       </c>
       <c r="AN301" t="s" s="2">
         <v>77</v>
@@ -37958,10 +37956,10 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
@@ -38070,10 +38068,10 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>762</v>
+        <v>719</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -38143,16 +38141,16 @@
         <v>77</v>
       </c>
       <c r="AB303" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC303" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AD303" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>188</v>
@@ -38184,21 +38182,21 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>764</v>
+        <v>720</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
-        <v>77</v>
+        <v>721</v>
       </c>
       <c r="E304" s="2"/>
       <c r="F304" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G304" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H304" t="s" s="2">
         <v>77</v>
@@ -38210,19 +38208,19 @@
         <v>89</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>361</v>
+        <v>722</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>192</v>
+        <v>723</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="O304" t="s" s="2">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="P304" t="s" s="2">
         <v>77</v>
@@ -38247,13 +38245,13 @@
         <v>77</v>
       </c>
       <c r="X304" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Y304" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Z304" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AA304" t="s" s="2">
         <v>77</v>
@@ -38271,25 +38269,25 @@
         <v>77</v>
       </c>
       <c r="AF304" t="s" s="2">
-        <v>199</v>
+        <v>724</v>
       </c>
       <c r="AG304" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH304" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI304" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ304" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK304" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL304" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AL304" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM304" t="s" s="2">
         <v>77</v>
@@ -38300,10 +38298,10 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>766</v>
+        <v>725</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -38311,34 +38309,32 @@
       </c>
       <c r="E305" s="2"/>
       <c r="F305" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G305" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H305" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I305" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J305" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>363</v>
+        <v>726</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N305" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="N305" s="2"/>
       <c r="O305" t="s" s="2">
-        <v>207</v>
+        <v>728</v>
       </c>
       <c r="P305" t="s" s="2">
         <v>77</v>
@@ -38363,13 +38359,13 @@
         <v>77</v>
       </c>
       <c r="X305" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="Y305" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="Z305" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="AA305" t="s" s="2">
         <v>77</v>
@@ -38387,13 +38383,13 @@
         <v>77</v>
       </c>
       <c r="AF305" t="s" s="2">
-        <v>209</v>
+        <v>725</v>
       </c>
       <c r="AG305" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH305" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI305" t="s" s="2">
         <v>77</v>
@@ -38402,10 +38398,10 @@
         <v>100</v>
       </c>
       <c r="AK305" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AL305" t="s" s="2">
-        <v>200</v>
+        <v>729</v>
       </c>
       <c r="AM305" t="s" s="2">
         <v>77</v>
@@ -38416,10 +38412,10 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -38439,23 +38435,19 @@
         <v>77</v>
       </c>
       <c r="J306" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>769</v>
+        <v>179</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="N306" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="O306" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N306" s="2"/>
+      <c r="O306" s="2"/>
       <c r="P306" t="s" s="2">
         <v>77</v>
       </c>
@@ -38467,7 +38459,7 @@
         <v>77</v>
       </c>
       <c r="T306" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="U306" t="s" s="2">
         <v>77</v>
@@ -38503,7 +38495,7 @@
         <v>77</v>
       </c>
       <c r="AF306" t="s" s="2">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c r="AG306" t="s" s="2">
         <v>78</v>
@@ -38515,16 +38507,16 @@
         <v>77</v>
       </c>
       <c r="AJ306" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK306" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AL306" t="s" s="2">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="AM306" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AN306" t="s" s="2">
         <v>77</v>
@@ -38532,21 +38524,21 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E307" s="2"/>
       <c r="F307" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G307" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H307" t="s" s="2">
         <v>77</v>
@@ -38555,19 +38547,19 @@
         <v>77</v>
       </c>
       <c r="J307" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>979</v>
+        <v>185</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>980</v>
+        <v>186</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="O307" s="2"/>
       <c r="P307" t="s" s="2">
@@ -38578,10 +38570,10 @@
         <v>77</v>
       </c>
       <c r="S307" t="s" s="2">
-        <v>1017</v>
+        <v>77</v>
       </c>
       <c r="T307" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="U307" t="s" s="2">
         <v>77</v>
@@ -38605,40 +38597,40 @@
         <v>77</v>
       </c>
       <c r="AB307" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC307" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AD307" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF307" t="s" s="2">
-        <v>298</v>
+        <v>188</v>
       </c>
       <c r="AG307" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH307" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI307" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ307" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK307" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AL307" t="s" s="2">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c r="AM307" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AN307" t="s" s="2">
         <v>77</v>
@@ -38646,10 +38638,10 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -38666,22 +38658,26 @@
         <v>77</v>
       </c>
       <c r="I308" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J308" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>304</v>
+        <v>108</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>305</v>
+        <v>361</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N308" s="2"/>
-      <c r="O308" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N308" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O308" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P308" t="s" s="2">
         <v>77</v>
       </c>
@@ -38705,13 +38701,13 @@
         <v>77</v>
       </c>
       <c r="X308" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="Y308" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Z308" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="AA308" t="s" s="2">
         <v>77</v>
@@ -38729,7 +38725,7 @@
         <v>77</v>
       </c>
       <c r="AF308" t="s" s="2">
-        <v>307</v>
+        <v>199</v>
       </c>
       <c r="AG308" t="s" s="2">
         <v>78</v>
@@ -38744,13 +38740,13 @@
         <v>100</v>
       </c>
       <c r="AK308" t="s" s="2">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="AL308" t="s" s="2">
-        <v>309</v>
+        <v>200</v>
       </c>
       <c r="AM308" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AN308" t="s" s="2">
         <v>77</v>
@@ -38758,10 +38754,10 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
@@ -38784,18 +38780,20 @@
         <v>89</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O309" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O309" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P309" t="s" s="2">
         <v>77</v>
       </c>
@@ -38819,13 +38817,13 @@
         <v>77</v>
       </c>
       <c r="X309" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="Y309" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="Z309" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="AA309" t="s" s="2">
         <v>77</v>
@@ -38843,7 +38841,7 @@
         <v>77</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>317</v>
+        <v>209</v>
       </c>
       <c r="AG309" t="s" s="2">
         <v>78</v>
@@ -38858,13 +38856,13 @@
         <v>100</v>
       </c>
       <c r="AK309" t="s" s="2">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="AL309" t="s" s="2">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="AM309" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="AN309" t="s" s="2">
         <v>77</v>
@@ -38872,10 +38870,10 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>730</v>
+        <v>768</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -38883,31 +38881,35 @@
       </c>
       <c r="E310" s="2"/>
       <c r="F310" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G310" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H310" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I310" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J310" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I310" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J310" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K310" t="s" s="2">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>1021</v>
+        <v>769</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="N310" s="2"/>
-      <c r="O310" s="2"/>
+        <v>770</v>
+      </c>
+      <c r="N310" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="O310" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P310" t="s" s="2">
         <v>77</v>
       </c>
@@ -38919,7 +38921,7 @@
         <v>77</v>
       </c>
       <c r="T310" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="U310" t="s" s="2">
         <v>77</v>
@@ -38931,11 +38933,13 @@
         <v>77</v>
       </c>
       <c r="X310" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y310" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y310" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z310" t="s" s="2">
-        <v>1022</v>
+        <v>77</v>
       </c>
       <c r="AA310" t="s" s="2">
         <v>77</v>
@@ -38953,10 +38957,10 @@
         <v>77</v>
       </c>
       <c r="AF310" t="s" s="2">
-        <v>730</v>
+        <v>288</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>88</v>
@@ -38968,13 +38972,13 @@
         <v>100</v>
       </c>
       <c r="AK310" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AL310" t="s" s="2">
-        <v>716</v>
+        <v>290</v>
       </c>
       <c r="AM310" t="s" s="2">
-        <v>735</v>
+        <v>291</v>
       </c>
       <c r="AN310" t="s" s="2">
         <v>77</v>
@@ -38982,10 +38986,10 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -38993,7 +38997,7 @@
       </c>
       <c r="E311" s="2"/>
       <c r="F311" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G311" t="s" s="2">
         <v>88</v>
@@ -39005,18 +39009,20 @@
         <v>77</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K311" t="s" s="2">
         <v>178</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>179</v>
+        <v>979</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N311" s="2"/>
+        <v>980</v>
+      </c>
+      <c r="N311" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O311" s="2"/>
       <c r="P311" t="s" s="2">
         <v>77</v>
@@ -39026,10 +39032,10 @@
         <v>77</v>
       </c>
       <c r="S311" t="s" s="2">
-        <v>77</v>
+        <v>1017</v>
       </c>
       <c r="T311" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="U311" t="s" s="2">
         <v>77</v>
@@ -39065,7 +39071,7 @@
         <v>77</v>
       </c>
       <c r="AF311" t="s" s="2">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="AG311" t="s" s="2">
         <v>78</v>
@@ -39077,16 +39083,16 @@
         <v>77</v>
       </c>
       <c r="AJ311" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="AL311" t="s" s="2">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="AM311" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN311" t="s" s="2">
         <v>77</v>
@@ -39094,21 +39100,21 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E312" s="2"/>
       <c r="F312" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G312" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H312" t="s" s="2">
         <v>77</v>
@@ -39117,20 +39123,18 @@
         <v>77</v>
       </c>
       <c r="J312" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N312" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N312" s="2"/>
       <c r="O312" s="2"/>
       <c r="P312" t="s" s="2">
         <v>77</v>
@@ -39167,40 +39171,40 @@
         <v>77</v>
       </c>
       <c r="AB312" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC312" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AD312" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF312" t="s" s="2">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="AG312" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH312" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI312" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ312" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK312" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="AL312" t="s" s="2">
-        <v>182</v>
+        <v>309</v>
       </c>
       <c r="AM312" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AN312" t="s" s="2">
         <v>77</v>
@@ -39208,10 +39212,10 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" t="s" s="2">
@@ -39222,7 +39226,7 @@
         <v>78</v>
       </c>
       <c r="G313" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H313" t="s" s="2">
         <v>77</v>
@@ -39234,20 +39238,18 @@
         <v>89</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O313" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="O313" s="2"/>
       <c r="P313" t="s" s="2">
         <v>77</v>
       </c>
@@ -39295,13 +39297,13 @@
         <v>77</v>
       </c>
       <c r="AF313" t="s" s="2">
-        <v>222</v>
+        <v>317</v>
       </c>
       <c r="AG313" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH313" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI313" t="s" s="2">
         <v>77</v>
@@ -39310,13 +39312,13 @@
         <v>100</v>
       </c>
       <c r="AK313" t="s" s="2">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="AL313" t="s" s="2">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="AM313" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AN313" t="s" s="2">
         <v>77</v>
@@ -39324,10 +39326,10 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>807</v>
+        <v>730</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -39341,29 +39343,25 @@
         <v>88</v>
       </c>
       <c r="H314" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I314" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J314" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>991</v>
+        <v>1021</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N314" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O314" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="N314" s="2"/>
+      <c r="O314" s="2"/>
       <c r="P314" t="s" s="2">
         <v>77</v>
       </c>
@@ -39387,13 +39385,11 @@
         <v>77</v>
       </c>
       <c r="X314" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y314" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="Y314" s="2"/>
       <c r="Z314" t="s" s="2">
-        <v>77</v>
+        <v>1022</v>
       </c>
       <c r="AA314" t="s" s="2">
         <v>77</v>
@@ -39411,10 +39407,10 @@
         <v>77</v>
       </c>
       <c r="AF314" t="s" s="2">
-        <v>278</v>
+        <v>730</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>88</v>
@@ -39426,13 +39422,13 @@
         <v>100</v>
       </c>
       <c r="AK314" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AL314" t="s" s="2">
-        <v>280</v>
+        <v>716</v>
       </c>
       <c r="AM314" t="s" s="2">
-        <v>77</v>
+        <v>735</v>
       </c>
       <c r="AN314" t="s" s="2">
         <v>77</v>
@@ -39440,10 +39436,10 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>736</v>
+        <v>783</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -39466,18 +39462,16 @@
         <v>77</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>737</v>
+        <v>179</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>738</v>
+        <v>180</v>
       </c>
       <c r="N315" s="2"/>
-      <c r="O315" t="s" s="2">
-        <v>739</v>
-      </c>
+      <c r="O315" s="2"/>
       <c r="P315" t="s" s="2">
         <v>77</v>
       </c>
@@ -39525,7 +39519,7 @@
         <v>77</v>
       </c>
       <c r="AF315" t="s" s="2">
-        <v>736</v>
+        <v>181</v>
       </c>
       <c r="AG315" t="s" s="2">
         <v>78</v>
@@ -39537,16 +39531,16 @@
         <v>77</v>
       </c>
       <c r="AJ315" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK315" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL315" t="s" s="2">
-        <v>740</v>
+        <v>182</v>
       </c>
       <c r="AM315" t="s" s="2">
-        <v>741</v>
+        <v>77</v>
       </c>
       <c r="AN315" t="s" s="2">
         <v>77</v>
@@ -39554,21 +39548,21 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>742</v>
+        <v>785</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E316" s="2"/>
       <c r="F316" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G316" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H316" t="s" s="2">
         <v>77</v>
@@ -39580,15 +39574,17 @@
         <v>77</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>313</v>
+        <v>133</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>743</v>
+        <v>185</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="N316" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N316" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O316" s="2"/>
       <c r="P316" t="s" s="2">
         <v>77</v>
@@ -39625,37 +39621,37 @@
         <v>77</v>
       </c>
       <c r="AB316" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC316" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AD316" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF316" t="s" s="2">
-        <v>742</v>
+        <v>188</v>
       </c>
       <c r="AG316" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH316" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI316" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ316" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK316" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL316" t="s" s="2">
-        <v>745</v>
+        <v>182</v>
       </c>
       <c r="AM316" t="s" s="2">
         <v>77</v>
@@ -39666,14 +39662,12 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="C317" t="s" s="2">
-        <v>1030</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
         <v>77</v>
       </c>
@@ -39685,25 +39679,29 @@
         <v>79</v>
       </c>
       <c r="H317" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I317" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J317" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I317" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J317" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K317" t="s" s="2">
-        <v>710</v>
+        <v>217</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>1031</v>
+        <v>371</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>968</v>
-      </c>
-      <c r="N317" s="2"/>
-      <c r="O317" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N317" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O317" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P317" t="s" s="2">
         <v>77</v>
       </c>
@@ -39751,7 +39749,7 @@
         <v>77</v>
       </c>
       <c r="AF317" t="s" s="2">
-        <v>709</v>
+        <v>222</v>
       </c>
       <c r="AG317" t="s" s="2">
         <v>78</v>
@@ -39766,13 +39764,13 @@
         <v>100</v>
       </c>
       <c r="AK317" t="s" s="2">
-        <v>715</v>
+        <v>223</v>
       </c>
       <c r="AL317" t="s" s="2">
-        <v>716</v>
+        <v>224</v>
       </c>
       <c r="AM317" t="s" s="2">
-        <v>717</v>
+        <v>77</v>
       </c>
       <c r="AN317" t="s" s="2">
         <v>77</v>
@@ -39780,10 +39778,10 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>718</v>
+        <v>807</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" t="s" s="2">
@@ -39791,7 +39789,7 @@
       </c>
       <c r="E318" s="2"/>
       <c r="F318" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G318" t="s" s="2">
         <v>88</v>
@@ -39803,19 +39801,23 @@
         <v>77</v>
       </c>
       <c r="J318" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K318" t="s" s="2">
         <v>178</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>179</v>
+        <v>991</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N318" s="2"/>
-      <c r="O318" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N318" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O318" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P318" t="s" s="2">
         <v>77</v>
       </c>
@@ -39863,7 +39865,7 @@
         <v>77</v>
       </c>
       <c r="AF318" t="s" s="2">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="AG318" t="s" s="2">
         <v>78</v>
@@ -39875,13 +39877,13 @@
         <v>77</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK318" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AL318" t="s" s="2">
-        <v>182</v>
+        <v>280</v>
       </c>
       <c r="AM318" t="s" s="2">
         <v>77</v>
@@ -39892,21 +39894,21 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E319" s="2"/>
       <c r="F319" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G319" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H319" t="s" s="2">
         <v>77</v>
@@ -39918,18 +39920,18 @@
         <v>77</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>185</v>
+        <v>737</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N319" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O319" s="2"/>
+        <v>738</v>
+      </c>
+      <c r="N319" s="2"/>
+      <c r="O319" t="s" s="2">
+        <v>739</v>
+      </c>
       <c r="P319" t="s" s="2">
         <v>77</v>
       </c>
@@ -39977,28 +39979,28 @@
         <v>77</v>
       </c>
       <c r="AF319" t="s" s="2">
-        <v>188</v>
+        <v>736</v>
       </c>
       <c r="AG319" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH319" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI319" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ319" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK319" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL319" t="s" s="2">
-        <v>182</v>
+        <v>740</v>
       </c>
       <c r="AM319" t="s" s="2">
-        <v>77</v>
+        <v>741</v>
       </c>
       <c r="AN319" t="s" s="2">
         <v>77</v>
@@ -40006,46 +40008,42 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
-        <v>721</v>
+        <v>77</v>
       </c>
       <c r="E320" s="2"/>
       <c r="F320" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G320" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H320" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I320" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J320" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>133</v>
+        <v>313</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="N320" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O320" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="N320" s="2"/>
+      <c r="O320" s="2"/>
       <c r="P320" t="s" s="2">
         <v>77</v>
       </c>
@@ -40093,25 +40091,25 @@
         <v>77</v>
       </c>
       <c r="AF320" t="s" s="2">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="AG320" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH320" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI320" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ320" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK320" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL320" t="s" s="2">
-        <v>131</v>
+        <v>745</v>
       </c>
       <c r="AM320" t="s" s="2">
         <v>77</v>
@@ -40122,12 +40120,14 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="C321" s="2"/>
+        <v>709</v>
+      </c>
+      <c r="C321" t="s" s="2">
+        <v>1030</v>
+      </c>
       <c r="D321" t="s" s="2">
         <v>77</v>
       </c>
@@ -40139,7 +40139,7 @@
         <v>79</v>
       </c>
       <c r="H321" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I321" t="s" s="2">
         <v>77</v>
@@ -40148,18 +40148,16 @@
         <v>77</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>163</v>
+        <v>710</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>726</v>
+        <v>1031</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>727</v>
+        <v>968</v>
       </c>
       <c r="N321" s="2"/>
-      <c r="O321" t="s" s="2">
-        <v>728</v>
-      </c>
+      <c r="O321" s="2"/>
       <c r="P321" t="s" s="2">
         <v>77</v>
       </c>
@@ -40207,7 +40205,7 @@
         <v>77</v>
       </c>
       <c r="AF321" t="s" s="2">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="AG321" t="s" s="2">
         <v>78</v>
@@ -40222,13 +40220,13 @@
         <v>100</v>
       </c>
       <c r="AK321" t="s" s="2">
-        <v>77</v>
+        <v>715</v>
       </c>
       <c r="AL321" t="s" s="2">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="AM321" t="s" s="2">
-        <v>77</v>
+        <v>717</v>
       </c>
       <c r="AN321" t="s" s="2">
         <v>77</v>
@@ -40236,10 +40234,10 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -40348,10 +40346,10 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>762</v>
+        <v>719</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s" s="2">
@@ -40421,16 +40419,16 @@
         <v>77</v>
       </c>
       <c r="AB323" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC323" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AD323" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>188</v>
@@ -40462,21 +40460,21 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>764</v>
+        <v>720</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" t="s" s="2">
-        <v>77</v>
+        <v>721</v>
       </c>
       <c r="E324" s="2"/>
       <c r="F324" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G324" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H324" t="s" s="2">
         <v>77</v>
@@ -40488,19 +40486,19 @@
         <v>89</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>361</v>
+        <v>722</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>192</v>
+        <v>723</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="O324" t="s" s="2">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="P324" t="s" s="2">
         <v>77</v>
@@ -40525,13 +40523,13 @@
         <v>77</v>
       </c>
       <c r="X324" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Y324" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Z324" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AA324" t="s" s="2">
         <v>77</v>
@@ -40549,25 +40547,25 @@
         <v>77</v>
       </c>
       <c r="AF324" t="s" s="2">
-        <v>199</v>
+        <v>724</v>
       </c>
       <c r="AG324" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH324" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI324" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ324" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK324" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL324" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AL324" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM324" t="s" s="2">
         <v>77</v>
@@ -40578,10 +40576,10 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>766</v>
+        <v>725</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" t="s" s="2">
@@ -40589,34 +40587,32 @@
       </c>
       <c r="E325" s="2"/>
       <c r="F325" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G325" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H325" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I325" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J325" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>363</v>
+        <v>726</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="N325" s="2"/>
       <c r="O325" t="s" s="2">
-        <v>207</v>
+        <v>728</v>
       </c>
       <c r="P325" t="s" s="2">
         <v>77</v>
@@ -40641,13 +40637,13 @@
         <v>77</v>
       </c>
       <c r="X325" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="Y325" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="Z325" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="AA325" t="s" s="2">
         <v>77</v>
@@ -40665,13 +40661,13 @@
         <v>77</v>
       </c>
       <c r="AF325" t="s" s="2">
-        <v>209</v>
+        <v>725</v>
       </c>
       <c r="AG325" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH325" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI325" t="s" s="2">
         <v>77</v>
@@ -40680,10 +40676,10 @@
         <v>100</v>
       </c>
       <c r="AK325" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AL325" t="s" s="2">
-        <v>200</v>
+        <v>729</v>
       </c>
       <c r="AM325" t="s" s="2">
         <v>77</v>
@@ -40694,10 +40690,10 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" t="s" s="2">
@@ -40717,23 +40713,19 @@
         <v>77</v>
       </c>
       <c r="J326" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>769</v>
+        <v>179</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="N326" t="s" s="2">
-        <v>771</v>
-      </c>
-      <c r="O326" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N326" s="2"/>
+      <c r="O326" s="2"/>
       <c r="P326" t="s" s="2">
         <v>77</v>
       </c>
@@ -40745,7 +40737,7 @@
         <v>77</v>
       </c>
       <c r="T326" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="U326" t="s" s="2">
         <v>77</v>
@@ -40781,7 +40773,7 @@
         <v>77</v>
       </c>
       <c r="AF326" t="s" s="2">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c r="AG326" t="s" s="2">
         <v>78</v>
@@ -40793,16 +40785,16 @@
         <v>77</v>
       </c>
       <c r="AJ326" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK326" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AL326" t="s" s="2">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="AM326" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AN326" t="s" s="2">
         <v>77</v>
@@ -40810,21 +40802,21 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E327" s="2"/>
       <c r="F327" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G327" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H327" t="s" s="2">
         <v>77</v>
@@ -40833,19 +40825,19 @@
         <v>77</v>
       </c>
       <c r="J327" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>979</v>
+        <v>185</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>980</v>
+        <v>186</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" t="s" s="2">
@@ -40856,10 +40848,10 @@
         <v>77</v>
       </c>
       <c r="S327" t="s" s="2">
-        <v>1042</v>
+        <v>77</v>
       </c>
       <c r="T327" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="U327" t="s" s="2">
         <v>77</v>
@@ -40883,40 +40875,40 @@
         <v>77</v>
       </c>
       <c r="AB327" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC327" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AD327" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF327" t="s" s="2">
-        <v>298</v>
+        <v>188</v>
       </c>
       <c r="AG327" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH327" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI327" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ327" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK327" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AL327" t="s" s="2">
-        <v>300</v>
+        <v>182</v>
       </c>
       <c r="AM327" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="AN327" t="s" s="2">
         <v>77</v>
@@ -40924,10 +40916,10 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" t="s" s="2">
@@ -40944,22 +40936,26 @@
         <v>77</v>
       </c>
       <c r="I328" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J328" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>304</v>
+        <v>108</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>305</v>
+        <v>361</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N328" s="2"/>
-      <c r="O328" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N328" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O328" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P328" t="s" s="2">
         <v>77</v>
       </c>
@@ -40983,13 +40979,13 @@
         <v>77</v>
       </c>
       <c r="X328" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="Y328" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Z328" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="AA328" t="s" s="2">
         <v>77</v>
@@ -41007,7 +41003,7 @@
         <v>77</v>
       </c>
       <c r="AF328" t="s" s="2">
-        <v>307</v>
+        <v>199</v>
       </c>
       <c r="AG328" t="s" s="2">
         <v>78</v>
@@ -41022,13 +41018,13 @@
         <v>100</v>
       </c>
       <c r="AK328" t="s" s="2">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="AL328" t="s" s="2">
-        <v>309</v>
+        <v>200</v>
       </c>
       <c r="AM328" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AN328" t="s" s="2">
         <v>77</v>
@@ -41036,10 +41032,10 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
@@ -41062,18 +41058,20 @@
         <v>89</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O329" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O329" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P329" t="s" s="2">
         <v>77</v>
       </c>
@@ -41097,13 +41095,13 @@
         <v>77</v>
       </c>
       <c r="X329" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="Y329" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="Z329" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="AA329" t="s" s="2">
         <v>77</v>
@@ -41121,7 +41119,7 @@
         <v>77</v>
       </c>
       <c r="AF329" t="s" s="2">
-        <v>317</v>
+        <v>209</v>
       </c>
       <c r="AG329" t="s" s="2">
         <v>78</v>
@@ -41136,13 +41134,13 @@
         <v>100</v>
       </c>
       <c r="AK329" t="s" s="2">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="AL329" t="s" s="2">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="AM329" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="AN329" t="s" s="2">
         <v>77</v>
@@ -41150,10 +41148,10 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>730</v>
+        <v>768</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
@@ -41161,31 +41159,35 @@
       </c>
       <c r="E330" s="2"/>
       <c r="F330" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G330" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H330" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I330" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J330" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I330" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J330" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K330" t="s" s="2">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>1046</v>
+        <v>769</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="N330" s="2"/>
-      <c r="O330" s="2"/>
+        <v>770</v>
+      </c>
+      <c r="N330" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="O330" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P330" t="s" s="2">
         <v>77</v>
       </c>
@@ -41197,7 +41199,7 @@
         <v>77</v>
       </c>
       <c r="T330" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="U330" t="s" s="2">
         <v>77</v>
@@ -41209,11 +41211,13 @@
         <v>77</v>
       </c>
       <c r="X330" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y330" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y330" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z330" t="s" s="2">
-        <v>1047</v>
+        <v>77</v>
       </c>
       <c r="AA330" t="s" s="2">
         <v>77</v>
@@ -41231,10 +41235,10 @@
         <v>77</v>
       </c>
       <c r="AF330" t="s" s="2">
-        <v>730</v>
+        <v>288</v>
       </c>
       <c r="AG330" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH330" t="s" s="2">
         <v>88</v>
@@ -41246,13 +41250,13 @@
         <v>100</v>
       </c>
       <c r="AK330" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AL330" t="s" s="2">
-        <v>716</v>
+        <v>290</v>
       </c>
       <c r="AM330" t="s" s="2">
-        <v>735</v>
+        <v>291</v>
       </c>
       <c r="AN330" t="s" s="2">
         <v>77</v>
@@ -41260,10 +41264,10 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -41271,7 +41275,7 @@
       </c>
       <c r="E331" s="2"/>
       <c r="F331" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G331" t="s" s="2">
         <v>88</v>
@@ -41283,18 +41287,20 @@
         <v>77</v>
       </c>
       <c r="J331" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K331" t="s" s="2">
         <v>178</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>179</v>
+        <v>979</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N331" s="2"/>
+        <v>980</v>
+      </c>
+      <c r="N331" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O331" s="2"/>
       <c r="P331" t="s" s="2">
         <v>77</v>
@@ -41304,10 +41310,10 @@
         <v>77</v>
       </c>
       <c r="S331" t="s" s="2">
-        <v>77</v>
+        <v>1042</v>
       </c>
       <c r="T331" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="U331" t="s" s="2">
         <v>77</v>
@@ -41343,7 +41349,7 @@
         <v>77</v>
       </c>
       <c r="AF331" t="s" s="2">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="AG331" t="s" s="2">
         <v>78</v>
@@ -41355,16 +41361,16 @@
         <v>77</v>
       </c>
       <c r="AJ331" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK331" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="AL331" t="s" s="2">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="AM331" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN331" t="s" s="2">
         <v>77</v>
@@ -41372,21 +41378,21 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E332" s="2"/>
       <c r="F332" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G332" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H332" t="s" s="2">
         <v>77</v>
@@ -41395,20 +41401,18 @@
         <v>77</v>
       </c>
       <c r="J332" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N332" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N332" s="2"/>
       <c r="O332" s="2"/>
       <c r="P332" t="s" s="2">
         <v>77</v>
@@ -41445,40 +41449,40 @@
         <v>77</v>
       </c>
       <c r="AB332" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC332" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AD332" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF332" t="s" s="2">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="AG332" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH332" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI332" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ332" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK332" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="AL332" t="s" s="2">
-        <v>182</v>
+        <v>309</v>
       </c>
       <c r="AM332" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AN332" t="s" s="2">
         <v>77</v>
@@ -41486,10 +41490,10 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" t="s" s="2">
@@ -41500,7 +41504,7 @@
         <v>78</v>
       </c>
       <c r="G333" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H333" t="s" s="2">
         <v>77</v>
@@ -41512,20 +41516,18 @@
         <v>89</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="N333" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O333" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="O333" s="2"/>
       <c r="P333" t="s" s="2">
         <v>77</v>
       </c>
@@ -41573,13 +41575,13 @@
         <v>77</v>
       </c>
       <c r="AF333" t="s" s="2">
-        <v>222</v>
+        <v>317</v>
       </c>
       <c r="AG333" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH333" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI333" t="s" s="2">
         <v>77</v>
@@ -41588,13 +41590,13 @@
         <v>100</v>
       </c>
       <c r="AK333" t="s" s="2">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="AL333" t="s" s="2">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="AM333" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AN333" t="s" s="2">
         <v>77</v>
@@ -41602,10 +41604,10 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>807</v>
+        <v>730</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" t="s" s="2">
@@ -41619,29 +41621,25 @@
         <v>88</v>
       </c>
       <c r="H334" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I334" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J334" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N334" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O334" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="N334" s="2"/>
+      <c r="O334" s="2"/>
       <c r="P334" t="s" s="2">
         <v>77</v>
       </c>
@@ -41665,13 +41663,11 @@
         <v>77</v>
       </c>
       <c r="X334" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y334" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="Y334" s="2"/>
       <c r="Z334" t="s" s="2">
-        <v>77</v>
+        <v>1047</v>
       </c>
       <c r="AA334" t="s" s="2">
         <v>77</v>
@@ -41689,10 +41685,10 @@
         <v>77</v>
       </c>
       <c r="AF334" t="s" s="2">
-        <v>278</v>
+        <v>730</v>
       </c>
       <c r="AG334" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH334" t="s" s="2">
         <v>88</v>
@@ -41704,13 +41700,13 @@
         <v>100</v>
       </c>
       <c r="AK334" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AL334" t="s" s="2">
-        <v>280</v>
+        <v>716</v>
       </c>
       <c r="AM334" t="s" s="2">
-        <v>77</v>
+        <v>735</v>
       </c>
       <c r="AN334" t="s" s="2">
         <v>77</v>
@@ -41718,10 +41714,10 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>736</v>
+        <v>783</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" t="s" s="2">
@@ -41735,7 +41731,7 @@
         <v>88</v>
       </c>
       <c r="H335" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I335" t="s" s="2">
         <v>77</v>
@@ -41744,18 +41740,16 @@
         <v>77</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>905</v>
+        <v>179</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>738</v>
+        <v>180</v>
       </c>
       <c r="N335" s="2"/>
-      <c r="O335" t="s" s="2">
-        <v>739</v>
-      </c>
+      <c r="O335" s="2"/>
       <c r="P335" t="s" s="2">
         <v>77</v>
       </c>
@@ -41803,7 +41797,7 @@
         <v>77</v>
       </c>
       <c r="AF335" t="s" s="2">
-        <v>736</v>
+        <v>181</v>
       </c>
       <c r="AG335" t="s" s="2">
         <v>78</v>
@@ -41815,16 +41809,16 @@
         <v>77</v>
       </c>
       <c r="AJ335" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK335" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL335" t="s" s="2">
-        <v>740</v>
+        <v>182</v>
       </c>
       <c r="AM335" t="s" s="2">
-        <v>741</v>
+        <v>77</v>
       </c>
       <c r="AN335" t="s" s="2">
         <v>77</v>
@@ -41832,21 +41826,21 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>812</v>
+        <v>785</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E336" s="2"/>
       <c r="F336" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G336" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H336" t="s" s="2">
         <v>77</v>
@@ -41858,15 +41852,17 @@
         <v>77</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N336" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N336" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O336" s="2"/>
       <c r="P336" t="s" s="2">
         <v>77</v>
@@ -41903,31 +41899,31 @@
         <v>77</v>
       </c>
       <c r="AB336" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC336" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AD336" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF336" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AG336" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH336" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI336" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ336" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK336" t="s" s="2">
         <v>77</v>
@@ -41944,14 +41940,14 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>814</v>
+        <v>787</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E337" s="2"/>
       <c r="F337" t="s" s="2">
@@ -41967,21 +41963,23 @@
         <v>77</v>
       </c>
       <c r="J337" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>185</v>
+        <v>371</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O337" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="O337" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P337" t="s" s="2">
         <v>77</v>
       </c>
@@ -42017,19 +42015,19 @@
         <v>77</v>
       </c>
       <c r="AB337" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC337" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AD337" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF337" t="s" s="2">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="AG337" t="s" s="2">
         <v>78</v>
@@ -42041,13 +42039,13 @@
         <v>77</v>
       </c>
       <c r="AJ337" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK337" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="AL337" t="s" s="2">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="AM337" t="s" s="2">
         <v>77</v>
@@ -42058,10 +42056,10 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" t="s" s="2">
@@ -42069,7 +42067,7 @@
       </c>
       <c r="E338" s="2"/>
       <c r="F338" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G338" t="s" s="2">
         <v>88</v>
@@ -42084,18 +42082,20 @@
         <v>89</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>817</v>
+        <v>178</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>818</v>
+        <v>1052</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>819</v>
+        <v>275</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="O338" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="O338" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P338" t="s" s="2">
         <v>77</v>
       </c>
@@ -42143,7 +42143,7 @@
         <v>77</v>
       </c>
       <c r="AF338" t="s" s="2">
-        <v>821</v>
+        <v>278</v>
       </c>
       <c r="AG338" t="s" s="2">
         <v>78</v>
@@ -42152,16 +42152,16 @@
         <v>88</v>
       </c>
       <c r="AI338" t="s" s="2">
-        <v>822</v>
+        <v>77</v>
       </c>
       <c r="AJ338" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK338" t="s" s="2">
-        <v>823</v>
+        <v>279</v>
       </c>
       <c r="AL338" t="s" s="2">
-        <v>824</v>
+        <v>280</v>
       </c>
       <c r="AM338" t="s" s="2">
         <v>77</v>
@@ -42172,10 +42172,10 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>826</v>
+        <v>736</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" t="s" s="2">
@@ -42189,33 +42189,31 @@
         <v>88</v>
       </c>
       <c r="H339" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I339" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J339" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>817</v>
+        <v>304</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>827</v>
+        <v>905</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="N339" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="O339" s="2"/>
+        <v>738</v>
+      </c>
+      <c r="N339" s="2"/>
+      <c r="O339" t="s" s="2">
+        <v>739</v>
+      </c>
       <c r="P339" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q339" t="s" s="2">
-        <v>830</v>
-      </c>
+      <c r="Q339" s="2"/>
       <c r="R339" t="s" s="2">
         <v>77</v>
       </c>
@@ -42259,7 +42257,7 @@
         <v>77</v>
       </c>
       <c r="AF339" t="s" s="2">
-        <v>831</v>
+        <v>736</v>
       </c>
       <c r="AG339" t="s" s="2">
         <v>78</v>
@@ -42268,19 +42266,19 @@
         <v>88</v>
       </c>
       <c r="AI339" t="s" s="2">
-        <v>822</v>
+        <v>77</v>
       </c>
       <c r="AJ339" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK339" t="s" s="2">
-        <v>832</v>
+        <v>77</v>
       </c>
       <c r="AL339" t="s" s="2">
-        <v>833</v>
+        <v>740</v>
       </c>
       <c r="AM339" t="s" s="2">
-        <v>77</v>
+        <v>741</v>
       </c>
       <c r="AN339" t="s" s="2">
         <v>77</v>
@@ -42288,10 +42286,10 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>742</v>
+        <v>812</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" t="s" s="2">
@@ -42305,7 +42303,7 @@
         <v>88</v>
       </c>
       <c r="H340" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I340" t="s" s="2">
         <v>77</v>
@@ -42314,13 +42312,13 @@
         <v>77</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>313</v>
+        <v>178</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>911</v>
+        <v>179</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>836</v>
+        <v>180</v>
       </c>
       <c r="N340" s="2"/>
       <c r="O340" s="2"/>
@@ -42371,7 +42369,7 @@
         <v>77</v>
       </c>
       <c r="AF340" t="s" s="2">
-        <v>742</v>
+        <v>181</v>
       </c>
       <c r="AG340" t="s" s="2">
         <v>78</v>
@@ -42383,13 +42381,13 @@
         <v>77</v>
       </c>
       <c r="AJ340" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK340" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL340" t="s" s="2">
-        <v>745</v>
+        <v>182</v>
       </c>
       <c r="AM340" t="s" s="2">
         <v>77</v>
@@ -42400,21 +42398,21 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>838</v>
+        <v>814</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E341" s="2"/>
       <c r="F341" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G341" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H341" t="s" s="2">
         <v>77</v>
@@ -42426,15 +42424,17 @@
         <v>77</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N341" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N341" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O341" s="2"/>
       <c r="P341" t="s" s="2">
         <v>77</v>
@@ -42471,31 +42471,31 @@
         <v>77</v>
       </c>
       <c r="AB341" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC341" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AD341" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF341" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AG341" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH341" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI341" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ341" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK341" t="s" s="2">
         <v>77</v>
@@ -42512,21 +42512,21 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>840</v>
+        <v>816</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="E342" s="2"/>
       <c r="F342" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G342" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H342" t="s" s="2">
         <v>77</v>
@@ -42535,19 +42535,19 @@
         <v>77</v>
       </c>
       <c r="J342" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>133</v>
+        <v>817</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>185</v>
+        <v>818</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>186</v>
+        <v>819</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>158</v>
+        <v>820</v>
       </c>
       <c r="O342" s="2"/>
       <c r="P342" t="s" s="2">
@@ -42585,37 +42585,37 @@
         <v>77</v>
       </c>
       <c r="AB342" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC342" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AD342" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF342" t="s" s="2">
-        <v>188</v>
+        <v>821</v>
       </c>
       <c r="AG342" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH342" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI342" t="s" s="2">
-        <v>77</v>
+        <v>822</v>
       </c>
       <c r="AJ342" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK342" t="s" s="2">
-        <v>77</v>
+        <v>823</v>
       </c>
       <c r="AL342" t="s" s="2">
-        <v>182</v>
+        <v>824</v>
       </c>
       <c r="AM342" t="s" s="2">
         <v>77</v>
@@ -42626,10 +42626,10 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
@@ -42652,22 +42652,24 @@
         <v>89</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>178</v>
+        <v>817</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="O343" s="2"/>
       <c r="P343" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q343" s="2"/>
+      <c r="Q343" t="s" s="2">
+        <v>830</v>
+      </c>
       <c r="R343" t="s" s="2">
         <v>77</v>
       </c>
@@ -42711,7 +42713,7 @@
         <v>77</v>
       </c>
       <c r="AF343" t="s" s="2">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="AG343" t="s" s="2">
         <v>78</v>
@@ -42720,16 +42722,16 @@
         <v>88</v>
       </c>
       <c r="AI343" t="s" s="2">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="AJ343" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>77</v>
+        <v>832</v>
       </c>
       <c r="AL343" t="s" s="2">
-        <v>131</v>
+        <v>833</v>
       </c>
       <c r="AM343" t="s" s="2">
         <v>77</v>
@@ -42740,10 +42742,10 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>849</v>
+        <v>742</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" t="s" s="2">
@@ -42757,26 +42759,24 @@
         <v>88</v>
       </c>
       <c r="H344" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I344" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J344" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>102</v>
+        <v>313</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>850</v>
+        <v>911</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>851</v>
-      </c>
-      <c r="N344" t="s" s="2">
-        <v>852</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="N344" s="2"/>
       <c r="O344" s="2"/>
       <c r="P344" t="s" s="2">
         <v>77</v>
@@ -42801,13 +42801,13 @@
         <v>77</v>
       </c>
       <c r="X344" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="Y344" t="s" s="2">
-        <v>853</v>
+        <v>77</v>
       </c>
       <c r="Z344" t="s" s="2">
-        <v>854</v>
+        <v>77</v>
       </c>
       <c r="AA344" t="s" s="2">
         <v>77</v>
@@ -42825,7 +42825,7 @@
         <v>77</v>
       </c>
       <c r="AF344" t="s" s="2">
-        <v>855</v>
+        <v>742</v>
       </c>
       <c r="AG344" t="s" s="2">
         <v>78</v>
@@ -42843,7 +42843,7 @@
         <v>77</v>
       </c>
       <c r="AL344" t="s" s="2">
-        <v>131</v>
+        <v>745</v>
       </c>
       <c r="AM344" t="s" s="2">
         <v>77</v>
@@ -42854,10 +42854,10 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" t="s" s="2">
@@ -42877,20 +42877,18 @@
         <v>77</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>858</v>
+        <v>179</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="N345" t="s" s="2">
-        <v>860</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N345" s="2"/>
       <c r="O345" s="2"/>
       <c r="P345" t="s" s="2">
         <v>77</v>
@@ -42939,7 +42937,7 @@
         <v>77</v>
       </c>
       <c r="AF345" t="s" s="2">
-        <v>861</v>
+        <v>181</v>
       </c>
       <c r="AG345" t="s" s="2">
         <v>78</v>
@@ -42951,13 +42949,13 @@
         <v>77</v>
       </c>
       <c r="AJ345" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK345" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL345" t="s" s="2">
-        <v>862</v>
+        <v>182</v>
       </c>
       <c r="AM345" t="s" s="2">
         <v>77</v>
@@ -42968,21 +42966,21 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E346" s="2"/>
       <c r="F346" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G346" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H346" t="s" s="2">
         <v>77</v>
@@ -42991,19 +42989,19 @@
         <v>77</v>
       </c>
       <c r="J346" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>865</v>
+        <v>185</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>865</v>
+        <v>186</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>866</v>
+        <v>158</v>
       </c>
       <c r="O346" s="2"/>
       <c r="P346" t="s" s="2">
@@ -43041,37 +43039,37 @@
         <v>77</v>
       </c>
       <c r="AB346" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC346" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AD346" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF346" t="s" s="2">
-        <v>867</v>
+        <v>188</v>
       </c>
       <c r="AG346" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH346" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI346" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ346" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK346" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL346" t="s" s="2">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="AM346" t="s" s="2">
         <v>77</v>
@@ -43082,10 +43080,10 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1065</v>
+        <v>842</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" t="s" s="2">
@@ -43096,7 +43094,7 @@
         <v>78</v>
       </c>
       <c r="G347" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H347" t="s" s="2">
         <v>77</v>
@@ -43105,23 +43103,21 @@
         <v>77</v>
       </c>
       <c r="J347" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>1066</v>
+        <v>843</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>1067</v>
+        <v>844</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>1068</v>
-      </c>
-      <c r="O347" t="s" s="2">
-        <v>1069</v>
-      </c>
+        <v>845</v>
+      </c>
+      <c r="O347" s="2"/>
       <c r="P347" t="s" s="2">
         <v>77</v>
       </c>
@@ -43145,13 +43141,13 @@
         <v>77</v>
       </c>
       <c r="X347" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="Y347" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="Z347" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AA347" t="s" s="2">
         <v>77</v>
@@ -43169,35 +43165,493 @@
         <v>77</v>
       </c>
       <c r="AF347" t="s" s="2">
-        <v>1065</v>
+        <v>846</v>
       </c>
       <c r="AG347" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH347" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI347" t="s" s="2">
-        <v>77</v>
+        <v>847</v>
       </c>
       <c r="AJ347" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL347" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN347" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="348" hidden="true">
+      <c r="A348" t="s" s="2">
+        <v>1062</v>
+      </c>
+      <c r="B348" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="C348" s="2"/>
+      <c r="D348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E348" s="2"/>
+      <c r="F348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G348" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J348" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K348" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L348" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="M348" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="N348" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="O348" s="2"/>
+      <c r="P348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q348" s="2"/>
+      <c r="R348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X348" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y348" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="Z348" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="AA348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF348" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="AG348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH348" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ348" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL348" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN348" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="349" hidden="true">
+      <c r="A349" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="B349" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="C349" s="2"/>
+      <c r="D349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E349" s="2"/>
+      <c r="F349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G349" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J349" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K349" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L349" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="M349" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="N349" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="O349" s="2"/>
+      <c r="P349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q349" s="2"/>
+      <c r="R349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF349" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="AG349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH349" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ349" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL349" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="AM349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN349" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="350" hidden="true">
+      <c r="A350" t="s" s="2">
+        <v>1064</v>
+      </c>
+      <c r="B350" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="C350" s="2"/>
+      <c r="D350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E350" s="2"/>
+      <c r="F350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G350" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J350" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K350" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L350" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="M350" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="N350" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="O350" s="2"/>
+      <c r="P350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q350" s="2"/>
+      <c r="R350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF350" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="AG350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH350" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ350" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL350" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN350" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="351" hidden="true">
+      <c r="A351" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="B351" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="C351" s="2"/>
+      <c r="D351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E351" s="2"/>
+      <c r="F351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K351" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L351" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="M351" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="N351" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="O351" t="s" s="2">
+        <v>1069</v>
+      </c>
+      <c r="P351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q351" s="2"/>
+      <c r="R351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X351" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y351" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Z351" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AA351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF351" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="AG351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ351" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK351" t="s" s="2">
         <v>1070</v>
       </c>
-      <c r="AL347" t="s" s="2">
+      <c r="AL351" t="s" s="2">
         <v>1071</v>
       </c>
-      <c r="AM347" t="s" s="2">
+      <c r="AM351" t="s" s="2">
         <v>1072</v>
       </c>
-      <c r="AN347" t="s" s="2">
+      <c r="AN351" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN347">
+  <autoFilter ref="A1:AN351">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -43207,7 +43661,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI346">
+  <conditionalFormatting sqref="A2:AI350">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PrestadorProfesionalLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
